--- a/downloads/extra/Premium_Loss.xlsx
+++ b/downloads/extra/Premium_Loss.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\Blog\Blog_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="premium" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1927,6 +1927,32 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1952,7 +1978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1967,12 +1993,40 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2345,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,163 +2446,163 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>10244</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="9">
         <v>42954</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G2" s="10">
         <v>13330</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="10">
         <v>1000000</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="10">
         <v>3900000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>92319</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>10509</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9">
         <v>42775</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G3" s="10">
         <v>5647</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="10">
         <v>1000000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>3900000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>96730</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>10700</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>43015</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="F4" t="s">
-        <v>599</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" s="10">
         <v>12021</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="10">
         <v>1000000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <v>3900000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>90239</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>10880</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>42924</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>232058</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="10">
         <v>1000000</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <v>3900000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>96289</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>10948</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>42891</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>5132</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="10">
         <v>1000000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <v>3900000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>99671</v>
       </c>
     </row>
@@ -8764,7 +8818,7 @@
     <sortCondition ref="A2:A201"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8775,7 +8829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8821,148 +8877,148 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>43242</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="8">
+        <v>10244</v>
+      </c>
+      <c r="B2" s="12">
         <v>880016</v>
       </c>
-      <c r="C2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C2" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="13">
         <v>42261</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="15">
         <v>44072</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="15">
         <v>167121</v>
       </c>
-      <c r="I2" s="4">
-        <v>95523</v>
+      <c r="I2" s="10">
+        <v>13330</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>39819</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="8">
+        <v>10509</v>
+      </c>
+      <c r="B3" s="12">
         <v>880041</v>
       </c>
-      <c r="C3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C3" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="13">
         <v>41594</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="15">
         <v>88069</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="15">
         <v>102638</v>
       </c>
-      <c r="I3" s="4">
-        <v>59466</v>
+      <c r="I3" s="10">
+        <v>5647</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>39619</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="8">
+        <v>10700</v>
+      </c>
+      <c r="B4" s="12">
         <v>880205</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="14">
+        <v>41613</v>
+      </c>
+      <c r="G4" s="15">
+        <v>97247</v>
+      </c>
+      <c r="H4" s="15">
+        <v>37639</v>
+      </c>
+      <c r="I4" s="10">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>10880</v>
+      </c>
+      <c r="B5" s="12">
+        <v>880206</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="1">
-        <v>41613</v>
-      </c>
-      <c r="G4" s="4">
-        <v>97247</v>
-      </c>
-      <c r="H4" s="4">
-        <v>37639</v>
-      </c>
-      <c r="I4" s="4">
-        <v>130810</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24362</v>
-      </c>
-      <c r="B5">
-        <v>880206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>599</v>
-      </c>
-      <c r="D5" t="s">
-        <v>590</v>
-      </c>
-      <c r="E5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="13">
         <v>42637</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="15">
         <v>74793</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="15">
         <v>180260</v>
       </c>
-      <c r="I5" s="4">
-        <v>23489</v>
+      <c r="I5" s="10">
+        <v>232058</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>41091</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="8">
+        <v>10948</v>
+      </c>
+      <c r="B6" s="12">
         <v>880208</v>
       </c>
-      <c r="C6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="13">
         <v>42847</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="15">
         <v>38573</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="15">
         <v>289389</v>
       </c>
-      <c r="I6" s="4">
-        <v>132793</v>
+      <c r="I6" s="10">
+        <v>5132</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14812,19 +14868,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A202:A206">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:A210">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A211:A215">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14832,9 +14891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14851,8 +14910,7 @@
     <col min="15" max="15" width="12" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -14915,8 +14973,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>33524</v>
+      <c r="A2" s="8">
+        <v>10244</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -14924,11 +14982,11 @@
       <c r="C2" t="s">
         <v>615</v>
       </c>
-      <c r="D2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" t="s">
-        <v>383</v>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="F2" t="s">
         <v>386</v>
@@ -14936,26 +14994,26 @@
       <c r="G2" t="s">
         <v>618</v>
       </c>
-      <c r="H2">
-        <v>886727</v>
+      <c r="H2" s="12">
+        <v>880016</v>
       </c>
       <c r="I2" s="1">
         <v>41263</v>
       </c>
-      <c r="J2" s="1">
-        <v>43204</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="13">
+        <v>42261</v>
+      </c>
+      <c r="K2" s="9">
         <v>42954</v>
       </c>
       <c r="L2" s="1">
         <v>43319</v>
       </c>
-      <c r="M2" t="s">
-        <v>599</v>
-      </c>
-      <c r="N2" s="3">
-        <v>67587</v>
+      <c r="M2" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N2" s="10">
+        <v>13330</v>
       </c>
       <c r="O2" s="3">
         <v>50000</v>
@@ -14963,16 +15021,16 @@
       <c r="P2" s="3">
         <v>20000</v>
       </c>
-      <c r="R2" s="3">
-        <v>63513</v>
-      </c>
-      <c r="S2" s="3">
-        <v>244908</v>
+      <c r="R2" s="15">
+        <v>167121</v>
+      </c>
+      <c r="S2" s="15">
+        <v>44072</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>29004</v>
+      <c r="A3" s="8">
+        <v>10509</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -14980,11 +15038,11 @@
       <c r="C3" t="s">
         <v>615</v>
       </c>
-      <c r="D3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E3" t="s">
-        <v>334</v>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F3" t="s">
         <v>387</v>
@@ -14992,26 +15050,26 @@
       <c r="G3" t="s">
         <v>618</v>
       </c>
-      <c r="H3">
-        <v>887629</v>
+      <c r="H3" s="12">
+        <v>880041</v>
       </c>
       <c r="I3" s="1">
         <v>41264</v>
       </c>
-      <c r="J3" s="1">
-        <v>43250</v>
-      </c>
-      <c r="K3" s="1">
-        <v>42960</v>
+      <c r="J3" s="13">
+        <v>41594</v>
+      </c>
+      <c r="K3" s="9">
+        <v>42775</v>
       </c>
       <c r="L3" s="1">
-        <v>43325</v>
-      </c>
-      <c r="M3" t="s">
-        <v>599</v>
-      </c>
-      <c r="N3" s="3">
-        <v>104377</v>
+        <v>43140</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N3" s="10">
+        <v>5647</v>
       </c>
       <c r="O3" s="3">
         <v>50000</v>
@@ -15019,16 +15077,16 @@
       <c r="P3" s="3">
         <v>20000</v>
       </c>
-      <c r="R3" s="3">
-        <v>28375</v>
-      </c>
-      <c r="S3" s="3">
-        <v>89877</v>
+      <c r="R3" s="15">
+        <v>102638</v>
+      </c>
+      <c r="S3" s="15">
+        <v>88069</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>39731</v>
+      <c r="A4" s="8">
+        <v>10700</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -15036,11 +15094,11 @@
       <c r="C4" t="s">
         <v>615</v>
       </c>
-      <c r="D4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" t="s">
-        <v>376</v>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>385</v>
@@ -15048,26 +15106,26 @@
       <c r="G4" t="s">
         <v>618</v>
       </c>
-      <c r="H4">
-        <v>889702</v>
+      <c r="H4" s="12">
+        <v>880205</v>
       </c>
       <c r="I4" s="1">
         <v>41266</v>
       </c>
-      <c r="J4" s="1">
-        <v>42956</v>
-      </c>
-      <c r="K4" s="1">
-        <v>42867</v>
+      <c r="J4" s="14">
+        <v>41613</v>
+      </c>
+      <c r="K4" s="11">
+        <v>43015</v>
       </c>
       <c r="L4" s="1">
-        <v>43232</v>
-      </c>
-      <c r="M4" t="s">
-        <v>599</v>
-      </c>
-      <c r="N4" s="3">
-        <v>211991</v>
+        <v>43380</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N4" s="10">
+        <v>12021</v>
       </c>
       <c r="O4" s="3">
         <v>50000</v>
@@ -15075,16 +15133,16 @@
       <c r="P4" s="3">
         <v>20000</v>
       </c>
-      <c r="R4" s="3">
-        <v>87607</v>
-      </c>
-      <c r="S4" s="3">
-        <v>93354</v>
+      <c r="R4" s="15">
+        <v>37639</v>
+      </c>
+      <c r="S4" s="15">
+        <v>97247</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>35163</v>
+      <c r="A5" s="8">
+        <v>10880</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -15092,11 +15150,11 @@
       <c r="C5" t="s">
         <v>615</v>
       </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>231</v>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>388</v>
@@ -15104,26 +15162,26 @@
       <c r="G5" t="s">
         <v>618</v>
       </c>
-      <c r="H5">
-        <v>889258</v>
+      <c r="H5" s="12">
+        <v>880206</v>
       </c>
       <c r="I5" s="1">
         <v>41277</v>
       </c>
-      <c r="J5" s="1">
-        <v>43133</v>
-      </c>
-      <c r="K5" s="1">
-        <v>42775</v>
+      <c r="J5" s="13">
+        <v>42637</v>
+      </c>
+      <c r="K5" s="9">
+        <v>42924</v>
       </c>
       <c r="L5" s="1">
-        <v>43140</v>
-      </c>
-      <c r="M5" t="s">
-        <v>599</v>
-      </c>
-      <c r="N5" s="3">
-        <v>179483</v>
+        <v>43289</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="N5" s="10">
+        <v>232058</v>
       </c>
       <c r="O5" s="3">
         <v>50000</v>
@@ -15131,16 +15189,16 @@
       <c r="P5" s="3">
         <v>20000</v>
       </c>
-      <c r="R5" s="3">
-        <v>98914</v>
-      </c>
-      <c r="S5" s="3">
-        <v>45447</v>
+      <c r="R5" s="15">
+        <v>180260</v>
+      </c>
+      <c r="S5" s="15">
+        <v>74793</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13498</v>
+      <c r="A6" s="8">
+        <v>10948</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -15148,11 +15206,11 @@
       <c r="C6" t="s">
         <v>615</v>
       </c>
-      <c r="D6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" t="s">
-        <v>275</v>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>385</v>
@@ -15160,26 +15218,26 @@
       <c r="G6" t="s">
         <v>618</v>
       </c>
-      <c r="H6">
-        <v>888492</v>
+      <c r="H6" s="12">
+        <v>880208</v>
       </c>
       <c r="I6" s="1">
         <v>41285</v>
       </c>
-      <c r="J6" s="1">
-        <v>43398</v>
-      </c>
-      <c r="K6" s="1">
-        <v>43049</v>
+      <c r="J6" s="13">
+        <v>42847</v>
+      </c>
+      <c r="K6" s="11">
+        <v>42891</v>
       </c>
       <c r="L6" s="1">
-        <v>43414</v>
-      </c>
-      <c r="M6" t="s">
+        <v>43256</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="N6" s="3">
-        <v>215903</v>
+      <c r="N6" s="10">
+        <v>5132</v>
       </c>
       <c r="O6" s="3">
         <v>50000</v>
@@ -15187,11 +15245,11 @@
       <c r="P6" s="3">
         <v>20000</v>
       </c>
-      <c r="R6" s="3">
-        <v>30198</v>
-      </c>
-      <c r="S6" s="3">
-        <v>42067</v>
+      <c r="R6" s="15">
+        <v>289389</v>
+      </c>
+      <c r="S6" s="15">
+        <v>38573</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -15208,7 +15266,7 @@
         <v>572</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
         <v>388</v>
@@ -27121,6 +27179,9 @@
     <sortCondition ref="I2:I201"/>
   </sortState>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/downloads/extra/Premium_Loss.xlsx
+++ b/downloads/extra/Premium_Loss.xlsx
@@ -8830,7 +8830,7 @@
   <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/downloads/extra/Premium_Loss.xlsx
+++ b/downloads/extra/Premium_Loss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="premium" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="618">
   <si>
     <t>Policy Number</t>
   </si>
@@ -1887,12 +1887,6 @@
   </si>
   <si>
     <t>Closed</t>
-  </si>
-  <si>
-    <t>Insured First Name</t>
-  </si>
-  <si>
-    <t>Insured Last Name</t>
   </si>
   <si>
     <t>500K/1.5M</t>
@@ -2399,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,25 +2442,25 @@
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>10244</v>
+        <v>10880</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9">
-        <v>42954</v>
+        <v>42924</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G2" s="10">
-        <v>13330</v>
+        <v>232058</v>
       </c>
       <c r="H2" s="10">
         <v>1000000</v>
@@ -2475,30 +2469,30 @@
         <v>3900000</v>
       </c>
       <c r="J2" s="8">
-        <v>92319</v>
+        <v>96289</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>10509</v>
+        <v>10948</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="9">
-        <v>42775</v>
+        <v>201</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42891</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>388</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G3" s="10">
-        <v>5647</v>
+        <v>5132</v>
       </c>
       <c r="H3" s="10">
         <v>1000000</v>
@@ -2507,94 +2501,94 @@
         <v>3900000</v>
       </c>
       <c r="J3" s="8">
-        <v>96730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>10700</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="11">
-        <v>43015</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="G4" s="10">
-        <v>12021</v>
-      </c>
-      <c r="H4" s="10">
+        <v>99671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10962</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42997</v>
+      </c>
+      <c r="E4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11308</v>
+      </c>
+      <c r="H4" s="3">
         <v>1000000</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="3">
         <v>3900000</v>
       </c>
-      <c r="J4" s="8">
-        <v>90239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>10880</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="9">
-        <v>42924</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="G5" s="10">
-        <v>232058</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="J4">
+        <v>91809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11028</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43019</v>
+      </c>
+      <c r="E5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13381</v>
+      </c>
+      <c r="H5" s="3">
         <v>1000000</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="3">
         <v>3900000</v>
       </c>
-      <c r="J5" s="8">
-        <v>96289</v>
+      <c r="J5">
+        <v>94102</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>10948</v>
+        <v>10244</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="11">
-        <v>42891</v>
+        <v>325</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42954</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G6" s="10">
-        <v>5132</v>
+        <v>13330</v>
       </c>
       <c r="H6" s="10">
         <v>1000000</v>
@@ -2603,30 +2597,27 @@
         <v>3900000</v>
       </c>
       <c r="J6" s="8">
-        <v>99671</v>
+        <v>92319</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10962</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>11106</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="D7" s="1">
-        <v>42997</v>
+        <v>42961</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
         <v>599</v>
       </c>
       <c r="G7" s="3">
-        <v>11308</v>
+        <v>446997</v>
       </c>
       <c r="H7" s="3">
         <v>1000000</v>
@@ -2635,21 +2626,21 @@
         <v>3900000</v>
       </c>
       <c r="J7">
-        <v>91809</v>
+        <v>97303</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11028</v>
+        <v>11271</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43019</v>
+        <v>224</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42931</v>
       </c>
       <c r="E8" t="s">
         <v>386</v>
@@ -2658,7 +2649,7 @@
         <v>599</v>
       </c>
       <c r="G8" s="3">
-        <v>13381</v>
+        <v>24252</v>
       </c>
       <c r="H8" s="3">
         <v>1000000</v>
@@ -2667,27 +2658,30 @@
         <v>3900000</v>
       </c>
       <c r="J8">
-        <v>94102</v>
+        <v>97474</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11106</v>
+        <v>11339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42961</v>
+        <v>384</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43094</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
         <v>599</v>
       </c>
       <c r="G9" s="3">
-        <v>446997</v>
+        <v>2651</v>
       </c>
       <c r="H9" s="3">
         <v>1000000</v>
@@ -2696,30 +2690,30 @@
         <v>3900000</v>
       </c>
       <c r="J9">
-        <v>97303</v>
+        <v>91367</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11271</v>
+        <v>11358</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42931</v>
+        <v>383</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43083</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>599</v>
       </c>
       <c r="G10" s="3">
-        <v>24252</v>
+        <v>3091</v>
       </c>
       <c r="H10" s="3">
         <v>1000000</v>
@@ -2728,62 +2722,62 @@
         <v>3900000</v>
       </c>
       <c r="J10">
-        <v>97474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43094</v>
-      </c>
-      <c r="E11" t="s">
+        <v>91648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10509</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42775</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F11" t="s">
-        <v>599</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2651</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5647</v>
+      </c>
+      <c r="H11" s="10">
         <v>1000000</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="10">
         <v>3900000</v>
       </c>
-      <c r="J11">
-        <v>91367</v>
+      <c r="J11" s="8">
+        <v>96730</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11358</v>
+        <v>11415</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="D12" s="2">
-        <v>43083</v>
+        <v>42913</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G12" s="3">
-        <v>3091</v>
+        <v>205839</v>
       </c>
       <c r="H12" s="3">
         <v>1000000</v>
@@ -2792,30 +2786,30 @@
         <v>3900000</v>
       </c>
       <c r="J12">
-        <v>91648</v>
+        <v>97593</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11415</v>
+        <v>11762</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="D13" s="2">
-        <v>42913</v>
+        <v>42851</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
         <v>598</v>
       </c>
       <c r="G13" s="3">
-        <v>205839</v>
+        <v>4514</v>
       </c>
       <c r="H13" s="3">
         <v>1000000</v>
@@ -2824,39 +2818,39 @@
         <v>3900000</v>
       </c>
       <c r="J13">
-        <v>97593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11762</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="2">
-        <v>42851</v>
-      </c>
-      <c r="E14" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" t="s">
-        <v>598</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4514</v>
-      </c>
-      <c r="H14" s="3">
+        <v>92292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>10700</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43015</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="G14" s="10">
+        <v>12021</v>
+      </c>
+      <c r="H14" s="10">
         <v>1000000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="10">
         <v>3900000</v>
       </c>
-      <c r="J14">
-        <v>92292</v>
+      <c r="J14" s="8">
+        <v>90239</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8829,8 +8823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8857,10 +8851,10 @@
         <v>597</v>
       </c>
       <c r="D1" t="s">
-        <v>616</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>617</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>401</v>
@@ -8876,265 +8870,265 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35033</v>
+      </c>
+      <c r="B2">
+        <v>880247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42080</v>
+      </c>
+      <c r="G2" s="4">
+        <v>84373</v>
+      </c>
+      <c r="H2" s="4">
+        <v>167646</v>
+      </c>
+      <c r="I2" s="4">
+        <v>176966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>47755</v>
+      </c>
+      <c r="B3">
+        <v>880255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43064</v>
+      </c>
+      <c r="G3" s="4">
+        <v>88205</v>
+      </c>
+      <c r="H3" s="4">
+        <v>54785</v>
+      </c>
+      <c r="I3" s="4">
+        <v>116133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>36838</v>
+      </c>
+      <c r="B4">
+        <v>880258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42812</v>
+      </c>
+      <c r="G4" s="4">
+        <v>36440</v>
+      </c>
+      <c r="H4" s="4">
+        <v>54880</v>
+      </c>
+      <c r="I4" s="4">
+        <v>65872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25169</v>
+      </c>
+      <c r="B5">
+        <v>880357</v>
+      </c>
+      <c r="C5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41633</v>
+      </c>
+      <c r="G5" s="4">
+        <v>94990</v>
+      </c>
+      <c r="H5" s="4">
+        <v>273453</v>
+      </c>
+      <c r="I5" s="4">
+        <v>160306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>10244</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B6" s="12">
         <v>880016</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F6" s="13">
         <v>42261</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G6" s="15">
         <v>44072</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H6" s="15">
         <v>167121</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I6" s="10">
         <v>13330</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>10509</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B7" s="12">
         <v>880041</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C7" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F7" s="13">
         <v>41594</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G7" s="15">
         <v>88069</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H7" s="15">
         <v>102638</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I7" s="10">
         <v>5647</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>10700</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B8" s="12">
         <v>880205</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F8" s="14">
         <v>41613</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G8" s="15">
         <v>97247</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H8" s="15">
         <v>37639</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I8" s="10">
         <v>12021</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>10880</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B9" s="12">
         <v>880206</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F9" s="13">
         <v>42637</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G9" s="15">
         <v>74793</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H9" s="15">
         <v>180260</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I9" s="10">
         <v>232058</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>10948</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B10" s="12">
         <v>880208</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F10" s="13">
         <v>42847</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G10" s="15">
         <v>38573</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H10" s="15">
         <v>289389</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I10" s="10">
         <v>5132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35033</v>
-      </c>
-      <c r="B7">
-        <v>880247</v>
-      </c>
-      <c r="C7" t="s">
-        <v>599</v>
-      </c>
-      <c r="D7" t="s">
-        <v>535</v>
-      </c>
-      <c r="E7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42080</v>
-      </c>
-      <c r="G7" s="4">
-        <v>84373</v>
-      </c>
-      <c r="H7" s="4">
-        <v>167646</v>
-      </c>
-      <c r="I7" s="4">
-        <v>176966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>47755</v>
-      </c>
-      <c r="B8">
-        <v>880255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43064</v>
-      </c>
-      <c r="G8" s="4">
-        <v>88205</v>
-      </c>
-      <c r="H8" s="4">
-        <v>54785</v>
-      </c>
-      <c r="I8" s="4">
-        <v>116133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>36838</v>
-      </c>
-      <c r="B9">
-        <v>880258</v>
-      </c>
-      <c r="C9" t="s">
-        <v>599</v>
-      </c>
-      <c r="D9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" s="2">
-        <v>42812</v>
-      </c>
-      <c r="G9" s="4">
-        <v>36440</v>
-      </c>
-      <c r="H9" s="4">
-        <v>54880</v>
-      </c>
-      <c r="I9" s="4">
-        <v>65872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>25169</v>
-      </c>
-      <c r="B10">
-        <v>880357</v>
-      </c>
-      <c r="C10" t="s">
-        <v>599</v>
-      </c>
-      <c r="D10" t="s">
-        <v>554</v>
-      </c>
-      <c r="E10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F10" s="2">
-        <v>41633</v>
-      </c>
-      <c r="G10" s="4">
-        <v>94990</v>
-      </c>
-      <c r="H10" s="4">
-        <v>273453</v>
-      </c>
-      <c r="I10" s="4">
-        <v>160306</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14879,8 +14873,8 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A6:A10">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -14893,7 +14887,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R6"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14924,10 +14918,10 @@
         <v>602</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>616</v>
+        <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>617</v>
+        <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -14973,8 +14967,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>10244</v>
+      <c r="A2">
+        <v>31626</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -14982,38 +14976,38 @@
       <c r="C2" t="s">
         <v>615</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>325</v>
+      <c r="D2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" t="s">
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H2" s="12">
-        <v>880016</v>
+        <v>616</v>
+      </c>
+      <c r="H2">
+        <v>881807</v>
       </c>
       <c r="I2" s="1">
-        <v>41263</v>
-      </c>
-      <c r="J2" s="13">
-        <v>42261</v>
-      </c>
-      <c r="K2" s="9">
-        <v>42954</v>
+        <v>41292</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43067</v>
+      </c>
+      <c r="K2" s="1">
+        <v>42882</v>
       </c>
       <c r="L2" s="1">
-        <v>43319</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="N2" s="10">
-        <v>13330</v>
+        <v>43247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>599</v>
+      </c>
+      <c r="N2" s="3">
+        <v>88820</v>
       </c>
       <c r="O2" s="3">
         <v>50000</v>
@@ -15021,16 +15015,16 @@
       <c r="P2" s="3">
         <v>20000</v>
       </c>
-      <c r="R2" s="15">
-        <v>167121</v>
-      </c>
-      <c r="S2" s="15">
-        <v>44072</v>
+      <c r="R2" s="3">
+        <v>98816</v>
+      </c>
+      <c r="S2" s="3">
+        <v>139524</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10509</v>
+      <c r="A3">
+        <v>45474</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -15038,38 +15032,38 @@
       <c r="C3" t="s">
         <v>615</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>240</v>
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H3" s="12">
-        <v>880041</v>
+        <v>616</v>
+      </c>
+      <c r="H3">
+        <v>881735</v>
       </c>
       <c r="I3" s="1">
-        <v>41264</v>
-      </c>
-      <c r="J3" s="13">
-        <v>41594</v>
-      </c>
-      <c r="K3" s="9">
-        <v>42775</v>
+        <v>41310</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43293</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43026</v>
       </c>
       <c r="L3" s="1">
-        <v>43140</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="N3" s="10">
-        <v>5647</v>
+        <v>43391</v>
+      </c>
+      <c r="M3" t="s">
+        <v>599</v>
+      </c>
+      <c r="N3" s="3">
+        <v>189094</v>
       </c>
       <c r="O3" s="3">
         <v>50000</v>
@@ -15077,16 +15071,16 @@
       <c r="P3" s="3">
         <v>20000</v>
       </c>
-      <c r="R3" s="15">
-        <v>102638</v>
-      </c>
-      <c r="S3" s="15">
-        <v>88069</v>
+      <c r="R3" s="3">
+        <v>65153</v>
+      </c>
+      <c r="S3" s="3">
+        <v>75357</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>10700</v>
+      <c r="A4">
+        <v>18196</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -15094,38 +15088,38 @@
       <c r="C4" t="s">
         <v>615</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>211</v>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
       </c>
       <c r="F4" t="s">
         <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>618</v>
-      </c>
-      <c r="H4" s="12">
-        <v>880205</v>
+        <v>616</v>
+      </c>
+      <c r="H4">
+        <v>887535</v>
       </c>
       <c r="I4" s="1">
-        <v>41266</v>
-      </c>
-      <c r="J4" s="14">
-        <v>41613</v>
-      </c>
-      <c r="K4" s="11">
-        <v>43015</v>
+        <v>41310</v>
+      </c>
+      <c r="J4" s="1">
+        <v>42918</v>
+      </c>
+      <c r="K4" s="1">
+        <v>42738</v>
       </c>
       <c r="L4" s="1">
-        <v>43380</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="N4" s="10">
-        <v>12021</v>
+        <v>43103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>598</v>
+      </c>
+      <c r="N4" s="3">
+        <v>212515</v>
       </c>
       <c r="O4" s="3">
         <v>50000</v>
@@ -15133,16 +15127,16 @@
       <c r="P4" s="3">
         <v>20000</v>
       </c>
-      <c r="R4" s="15">
-        <v>37639</v>
-      </c>
-      <c r="S4" s="15">
-        <v>97247</v>
+      <c r="R4" s="3">
+        <v>55733</v>
+      </c>
+      <c r="S4" s="3">
+        <v>101685</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>10880</v>
+      <c r="A5">
+        <v>37658</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -15150,38 +15144,38 @@
       <c r="C5" t="s">
         <v>615</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>249</v>
+      <c r="D5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G5" t="s">
-        <v>618</v>
-      </c>
-      <c r="H5" s="12">
-        <v>880206</v>
+        <v>616</v>
+      </c>
+      <c r="H5">
+        <v>884102</v>
       </c>
       <c r="I5" s="1">
-        <v>41277</v>
-      </c>
-      <c r="J5" s="13">
-        <v>42637</v>
-      </c>
-      <c r="K5" s="9">
-        <v>42924</v>
+        <v>41339</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43242</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43068</v>
       </c>
       <c r="L5" s="1">
-        <v>43289</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="N5" s="10">
-        <v>232058</v>
+        <v>43433</v>
+      </c>
+      <c r="M5" t="s">
+        <v>599</v>
+      </c>
+      <c r="N5" s="3">
+        <v>122708</v>
       </c>
       <c r="O5" s="3">
         <v>50000</v>
@@ -15189,16 +15183,16 @@
       <c r="P5" s="3">
         <v>20000</v>
       </c>
-      <c r="R5" s="15">
-        <v>180260</v>
-      </c>
-      <c r="S5" s="15">
-        <v>74793</v>
+      <c r="R5" s="3">
+        <v>92617</v>
+      </c>
+      <c r="S5" s="3">
+        <v>244446</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>10948</v>
+      <c r="A6">
+        <v>37188</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -15206,38 +15200,38 @@
       <c r="C6" t="s">
         <v>615</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>201</v>
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>354</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G6" t="s">
-        <v>618</v>
-      </c>
-      <c r="H6" s="12">
-        <v>880208</v>
+        <v>616</v>
+      </c>
+      <c r="H6">
+        <v>883421</v>
       </c>
       <c r="I6" s="1">
-        <v>41285</v>
-      </c>
-      <c r="J6" s="13">
-        <v>42847</v>
-      </c>
-      <c r="K6" s="11">
-        <v>42891</v>
+        <v>41346</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43207</v>
+      </c>
+      <c r="K6" s="1">
+        <v>43038</v>
       </c>
       <c r="L6" s="1">
-        <v>43256</v>
-      </c>
-      <c r="M6" s="8" t="s">
+        <v>43403</v>
+      </c>
+      <c r="M6" t="s">
         <v>598</v>
       </c>
-      <c r="N6" s="10">
-        <v>5132</v>
+      <c r="N6" s="3">
+        <v>81647</v>
       </c>
       <c r="O6" s="3">
         <v>50000</v>
@@ -15245,16 +15239,16 @@
       <c r="P6" s="3">
         <v>20000</v>
       </c>
-      <c r="R6" s="15">
-        <v>289389</v>
-      </c>
-      <c r="S6" s="15">
-        <v>38573</v>
+      <c r="R6" s="3">
+        <v>53159</v>
+      </c>
+      <c r="S6" s="3">
+        <v>142510</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>31626</v>
+        <v>10502</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -15263,37 +15257,37 @@
         <v>615</v>
       </c>
       <c r="D7" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H7">
-        <v>881807</v>
+        <v>881344</v>
       </c>
       <c r="I7" s="1">
-        <v>41292</v>
+        <v>41346</v>
       </c>
       <c r="J7" s="1">
-        <v>43067</v>
+        <v>43147</v>
       </c>
       <c r="K7" s="1">
-        <v>42882</v>
+        <v>43006</v>
       </c>
       <c r="L7" s="1">
-        <v>43247</v>
+        <v>43371</v>
       </c>
       <c r="M7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N7" s="3">
-        <v>88820</v>
+        <v>117598</v>
       </c>
       <c r="O7" s="3">
         <v>50000</v>
@@ -15302,15 +15296,15 @@
         <v>20000</v>
       </c>
       <c r="R7" s="3">
-        <v>98816</v>
+        <v>53649</v>
       </c>
       <c r="S7" s="3">
-        <v>139524</v>
+        <v>80872</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>45474</v>
+        <v>13892</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -15319,37 +15313,37 @@
         <v>615</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>386</v>
       </c>
       <c r="G8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H8">
-        <v>881735</v>
+        <v>881331</v>
       </c>
       <c r="I8" s="1">
-        <v>41310</v>
+        <v>41348</v>
       </c>
       <c r="J8" s="1">
-        <v>43293</v>
+        <v>43315</v>
       </c>
       <c r="K8" s="1">
-        <v>43026</v>
+        <v>42983</v>
       </c>
       <c r="L8" s="1">
-        <v>43391</v>
+        <v>43348</v>
       </c>
       <c r="M8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N8" s="3">
-        <v>189094</v>
+        <v>223857</v>
       </c>
       <c r="O8" s="3">
         <v>50000</v>
@@ -15358,15 +15352,15 @@
         <v>20000</v>
       </c>
       <c r="R8" s="3">
-        <v>65153</v>
+        <v>55002</v>
       </c>
       <c r="S8" s="3">
-        <v>75357</v>
+        <v>94632</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>18196</v>
+      <c r="A9" s="8">
+        <v>10244</v>
       </c>
       <c r="B9">
         <v>2017</v>
@@ -15374,38 +15368,38 @@
       <c r="C9" t="s">
         <v>615</v>
       </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>282</v>
+      <c r="D9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G9" t="s">
-        <v>618</v>
-      </c>
-      <c r="H9">
-        <v>887535</v>
+        <v>616</v>
+      </c>
+      <c r="H9" s="12">
+        <v>880016</v>
       </c>
       <c r="I9" s="1">
-        <v>41310</v>
-      </c>
-      <c r="J9" s="1">
-        <v>42918</v>
-      </c>
-      <c r="K9" s="1">
-        <v>42738</v>
+        <v>41263</v>
+      </c>
+      <c r="J9" s="13">
+        <v>42261</v>
+      </c>
+      <c r="K9" s="9">
+        <v>42954</v>
       </c>
       <c r="L9" s="1">
-        <v>43103</v>
-      </c>
-      <c r="M9" t="s">
-        <v>598</v>
-      </c>
-      <c r="N9" s="3">
-        <v>212515</v>
+        <v>43319</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N9" s="10">
+        <v>13330</v>
       </c>
       <c r="O9" s="3">
         <v>50000</v>
@@ -15413,16 +15407,16 @@
       <c r="P9" s="3">
         <v>20000</v>
       </c>
-      <c r="R9" s="3">
-        <v>55733</v>
-      </c>
-      <c r="S9" s="3">
-        <v>101685</v>
+      <c r="R9" s="15">
+        <v>167121</v>
+      </c>
+      <c r="S9" s="15">
+        <v>44072</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>37658</v>
+      <c r="A10" s="8">
+        <v>10509</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -15430,38 +15424,38 @@
       <c r="C10" t="s">
         <v>615</v>
       </c>
-      <c r="D10" t="s">
-        <v>573</v>
-      </c>
-      <c r="E10" t="s">
-        <v>223</v>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G10" t="s">
-        <v>618</v>
-      </c>
-      <c r="H10">
-        <v>884102</v>
+        <v>616</v>
+      </c>
+      <c r="H10" s="12">
+        <v>880041</v>
       </c>
       <c r="I10" s="1">
-        <v>41339</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43242</v>
-      </c>
-      <c r="K10" s="1">
-        <v>43068</v>
+        <v>41264</v>
+      </c>
+      <c r="J10" s="13">
+        <v>41594</v>
+      </c>
+      <c r="K10" s="9">
+        <v>42775</v>
       </c>
       <c r="L10" s="1">
-        <v>43433</v>
-      </c>
-      <c r="M10" t="s">
-        <v>599</v>
-      </c>
-      <c r="N10" s="3">
-        <v>122708</v>
+        <v>43140</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N10" s="10">
+        <v>5647</v>
       </c>
       <c r="O10" s="3">
         <v>50000</v>
@@ -15469,16 +15463,16 @@
       <c r="P10" s="3">
         <v>20000</v>
       </c>
-      <c r="R10" s="3">
-        <v>92617</v>
-      </c>
-      <c r="S10" s="3">
-        <v>244446</v>
+      <c r="R10" s="15">
+        <v>102638</v>
+      </c>
+      <c r="S10" s="15">
+        <v>88069</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>37188</v>
+      <c r="A11" s="8">
+        <v>10700</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -15486,38 +15480,38 @@
       <c r="C11" t="s">
         <v>615</v>
       </c>
-      <c r="D11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E11" t="s">
-        <v>354</v>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G11" t="s">
-        <v>618</v>
-      </c>
-      <c r="H11">
-        <v>883421</v>
+        <v>616</v>
+      </c>
+      <c r="H11" s="12">
+        <v>880205</v>
       </c>
       <c r="I11" s="1">
-        <v>41346</v>
-      </c>
-      <c r="J11" s="1">
-        <v>43207</v>
-      </c>
-      <c r="K11" s="1">
-        <v>43038</v>
+        <v>41266</v>
+      </c>
+      <c r="J11" s="14">
+        <v>41613</v>
+      </c>
+      <c r="K11" s="11">
+        <v>43015</v>
       </c>
       <c r="L11" s="1">
-        <v>43403</v>
-      </c>
-      <c r="M11" t="s">
-        <v>598</v>
-      </c>
-      <c r="N11" s="3">
-        <v>81647</v>
+        <v>43380</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="N11" s="10">
+        <v>12021</v>
       </c>
       <c r="O11" s="3">
         <v>50000</v>
@@ -15525,16 +15519,16 @@
       <c r="P11" s="3">
         <v>20000</v>
       </c>
-      <c r="R11" s="3">
-        <v>53159</v>
-      </c>
-      <c r="S11" s="3">
-        <v>142510</v>
+      <c r="R11" s="15">
+        <v>37639</v>
+      </c>
+      <c r="S11" s="15">
+        <v>97247</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10502</v>
+      <c r="A12" s="8">
+        <v>10880</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -15542,38 +15536,38 @@
       <c r="C12" t="s">
         <v>615</v>
       </c>
-      <c r="D12" t="s">
-        <v>549</v>
-      </c>
-      <c r="E12" t="s">
-        <v>348</v>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
-        <v>618</v>
-      </c>
-      <c r="H12">
-        <v>881344</v>
+        <v>616</v>
+      </c>
+      <c r="H12" s="12">
+        <v>880206</v>
       </c>
       <c r="I12" s="1">
-        <v>41346</v>
-      </c>
-      <c r="J12" s="1">
-        <v>43147</v>
-      </c>
-      <c r="K12" s="1">
-        <v>43006</v>
+        <v>41277</v>
+      </c>
+      <c r="J12" s="13">
+        <v>42637</v>
+      </c>
+      <c r="K12" s="9">
+        <v>42924</v>
       </c>
       <c r="L12" s="1">
-        <v>43371</v>
-      </c>
-      <c r="M12" t="s">
+        <v>43289</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="N12" s="3">
-        <v>117598</v>
+      <c r="N12" s="10">
+        <v>232058</v>
       </c>
       <c r="O12" s="3">
         <v>50000</v>
@@ -15581,16 +15575,16 @@
       <c r="P12" s="3">
         <v>20000</v>
       </c>
-      <c r="R12" s="3">
-        <v>53649</v>
-      </c>
-      <c r="S12" s="3">
-        <v>80872</v>
+      <c r="R12" s="15">
+        <v>180260</v>
+      </c>
+      <c r="S12" s="15">
+        <v>74793</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13892</v>
+      <c r="A13" s="8">
+        <v>10948</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -15598,38 +15592,38 @@
       <c r="C13" t="s">
         <v>615</v>
       </c>
-      <c r="D13" t="s">
-        <v>550</v>
-      </c>
-      <c r="E13" t="s">
-        <v>243</v>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G13" t="s">
-        <v>618</v>
-      </c>
-      <c r="H13">
-        <v>881331</v>
+        <v>616</v>
+      </c>
+      <c r="H13" s="12">
+        <v>880208</v>
       </c>
       <c r="I13" s="1">
-        <v>41348</v>
-      </c>
-      <c r="J13" s="1">
-        <v>43315</v>
-      </c>
-      <c r="K13" s="1">
-        <v>42983</v>
+        <v>41285</v>
+      </c>
+      <c r="J13" s="13">
+        <v>42847</v>
+      </c>
+      <c r="K13" s="11">
+        <v>42891</v>
       </c>
       <c r="L13" s="1">
-        <v>43348</v>
-      </c>
-      <c r="M13" t="s">
+        <v>43256</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="N13" s="3">
-        <v>223857</v>
+      <c r="N13" s="10">
+        <v>5132</v>
       </c>
       <c r="O13" s="3">
         <v>50000</v>
@@ -15637,11 +15631,11 @@
       <c r="P13" s="3">
         <v>20000</v>
       </c>
-      <c r="R13" s="3">
-        <v>55002</v>
-      </c>
-      <c r="S13" s="3">
-        <v>94632</v>
+      <c r="R13" s="15">
+        <v>289389</v>
+      </c>
+      <c r="S13" s="15">
+        <v>38573</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -15664,7 +15658,7 @@
         <v>388</v>
       </c>
       <c r="G14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H14">
         <v>883327</v>
@@ -15720,7 +15714,7 @@
         <v>385</v>
       </c>
       <c r="G15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H15">
         <v>889713</v>
@@ -15776,7 +15770,7 @@
         <v>389</v>
       </c>
       <c r="G16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H16">
         <v>889851</v>
@@ -15832,7 +15826,7 @@
         <v>388</v>
       </c>
       <c r="G17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H17">
         <v>887139</v>
@@ -15888,7 +15882,7 @@
         <v>387</v>
       </c>
       <c r="G18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H18">
         <v>885992</v>
@@ -15944,7 +15938,7 @@
         <v>389</v>
       </c>
       <c r="G19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H19">
         <v>889512</v>
@@ -16000,7 +15994,7 @@
         <v>385</v>
       </c>
       <c r="G20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H20">
         <v>888168</v>
@@ -16056,7 +16050,7 @@
         <v>385</v>
       </c>
       <c r="G21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H21">
         <v>887832</v>
@@ -16112,7 +16106,7 @@
         <v>389</v>
       </c>
       <c r="G22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H22">
         <v>883006</v>
@@ -16168,7 +16162,7 @@
         <v>386</v>
       </c>
       <c r="G23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H23">
         <v>886315</v>
@@ -16224,7 +16218,7 @@
         <v>385</v>
       </c>
       <c r="G24" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H24">
         <v>884993</v>
@@ -16280,7 +16274,7 @@
         <v>389</v>
       </c>
       <c r="G25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H25">
         <v>885966</v>
@@ -16336,7 +16330,7 @@
         <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H26">
         <v>884756</v>
@@ -16392,7 +16386,7 @@
         <v>385</v>
       </c>
       <c r="G27" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H27">
         <v>886759</v>
@@ -16448,7 +16442,7 @@
         <v>385</v>
       </c>
       <c r="G28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H28">
         <v>884352</v>
@@ -16504,7 +16498,7 @@
         <v>390</v>
       </c>
       <c r="G29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H29">
         <v>888253</v>
@@ -16560,7 +16554,7 @@
         <v>385</v>
       </c>
       <c r="G30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H30">
         <v>880597</v>
@@ -16616,7 +16610,7 @@
         <v>389</v>
       </c>
       <c r="G31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H31">
         <v>887759</v>
@@ -16672,7 +16666,7 @@
         <v>385</v>
       </c>
       <c r="G32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H32">
         <v>884191</v>
@@ -16728,7 +16722,7 @@
         <v>385</v>
       </c>
       <c r="G33" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H33">
         <v>888613</v>
@@ -16784,7 +16778,7 @@
         <v>385</v>
       </c>
       <c r="G34" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H34">
         <v>881123</v>
@@ -16840,7 +16834,7 @@
         <v>387</v>
       </c>
       <c r="G35" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H35">
         <v>880041</v>
@@ -16896,7 +16890,7 @@
         <v>385</v>
       </c>
       <c r="G36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H36">
         <v>886409</v>
@@ -16952,7 +16946,7 @@
         <v>385</v>
       </c>
       <c r="G37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H37">
         <v>885193</v>
@@ -17008,7 +17002,7 @@
         <v>385</v>
       </c>
       <c r="G38" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H38">
         <v>887226</v>
@@ -17064,7 +17058,7 @@
         <v>388</v>
       </c>
       <c r="G39" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H39">
         <v>880205</v>
@@ -17120,7 +17114,7 @@
         <v>385</v>
       </c>
       <c r="G40" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H40">
         <v>886259</v>
@@ -17164,7 +17158,7 @@
         <v>2017</v>
       </c>
       <c r="C41" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
@@ -17176,7 +17170,7 @@
         <v>386</v>
       </c>
       <c r="G41" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H41">
         <v>883962</v>
@@ -17220,7 +17214,7 @@
         <v>2017</v>
       </c>
       <c r="C42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D42" t="s">
         <v>554</v>
@@ -17232,7 +17226,7 @@
         <v>386</v>
       </c>
       <c r="G42" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H42">
         <v>880357</v>
@@ -17276,7 +17270,7 @@
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D43" t="s">
         <v>510</v>
@@ -17288,7 +17282,7 @@
         <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H43">
         <v>889550</v>
@@ -17332,7 +17326,7 @@
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D44" t="s">
         <v>411</v>
@@ -17344,7 +17338,7 @@
         <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H44">
         <v>889627</v>
@@ -17388,7 +17382,7 @@
         <v>2017</v>
       </c>
       <c r="C45" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -17400,7 +17394,7 @@
         <v>386</v>
       </c>
       <c r="G45" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H45">
         <v>889591</v>
@@ -17444,7 +17438,7 @@
         <v>2017</v>
       </c>
       <c r="C46" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D46" t="s">
         <v>412</v>
@@ -17456,7 +17450,7 @@
         <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H46">
         <v>887969</v>
@@ -17500,7 +17494,7 @@
         <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D47" t="s">
         <v>413</v>
@@ -17512,7 +17506,7 @@
         <v>386</v>
       </c>
       <c r="G47" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H47">
         <v>887276</v>
@@ -17556,7 +17550,7 @@
         <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D48" t="s">
         <v>555</v>
@@ -17568,7 +17562,7 @@
         <v>385</v>
       </c>
       <c r="G48" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H48">
         <v>886567</v>
@@ -17612,7 +17606,7 @@
         <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D49" t="s">
         <v>575</v>
@@ -17624,7 +17618,7 @@
         <v>386</v>
       </c>
       <c r="G49" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H49">
         <v>885125</v>
@@ -17668,7 +17662,7 @@
         <v>2017</v>
       </c>
       <c r="C50" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D50" t="s">
         <v>556</v>
@@ -17680,7 +17674,7 @@
         <v>388</v>
       </c>
       <c r="G50" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H50">
         <v>889535</v>
@@ -17724,7 +17718,7 @@
         <v>2017</v>
       </c>
       <c r="C51" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D51" t="s">
         <v>480</v>
@@ -17736,7 +17730,7 @@
         <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H51">
         <v>882215</v>
@@ -17780,7 +17774,7 @@
         <v>2017</v>
       </c>
       <c r="C52" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D52" t="s">
         <v>530</v>
@@ -17792,7 +17786,7 @@
         <v>387</v>
       </c>
       <c r="G52" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H52">
         <v>888056</v>
@@ -17836,7 +17830,7 @@
         <v>2017</v>
       </c>
       <c r="C53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D53" t="s">
         <v>557</v>
@@ -17848,7 +17842,7 @@
         <v>386</v>
       </c>
       <c r="G53" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H53">
         <v>883474</v>
@@ -17892,7 +17886,7 @@
         <v>2017</v>
       </c>
       <c r="C54" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D54" t="s">
         <v>576</v>
@@ -17904,7 +17898,7 @@
         <v>386</v>
       </c>
       <c r="G54" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H54">
         <v>880957</v>
@@ -17948,7 +17942,7 @@
         <v>2017</v>
       </c>
       <c r="C55" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D55" t="s">
         <v>414</v>
@@ -17960,7 +17954,7 @@
         <v>388</v>
       </c>
       <c r="G55" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H55">
         <v>889215</v>
@@ -18004,7 +17998,7 @@
         <v>2017</v>
       </c>
       <c r="C56" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D56" t="s">
         <v>511</v>
@@ -18016,7 +18010,7 @@
         <v>390</v>
       </c>
       <c r="G56" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H56">
         <v>885822</v>
@@ -18060,7 +18054,7 @@
         <v>2017</v>
       </c>
       <c r="C57" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D57" t="s">
         <v>415</v>
@@ -18072,7 +18066,7 @@
         <v>387</v>
       </c>
       <c r="G57" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H57">
         <v>883047</v>
@@ -18116,7 +18110,7 @@
         <v>2017</v>
       </c>
       <c r="C58" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D58" t="s">
         <v>459</v>
@@ -18128,7 +18122,7 @@
         <v>386</v>
       </c>
       <c r="G58" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H58">
         <v>882780</v>
@@ -18172,7 +18166,7 @@
         <v>2017</v>
       </c>
       <c r="C59" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D59" t="s">
         <v>433</v>
@@ -18184,7 +18178,7 @@
         <v>386</v>
       </c>
       <c r="G59" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H59">
         <v>884266</v>
@@ -18228,7 +18222,7 @@
         <v>2017</v>
       </c>
       <c r="C60" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D60" t="s">
         <v>416</v>
@@ -18240,7 +18234,7 @@
         <v>385</v>
       </c>
       <c r="G60" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H60">
         <v>887114</v>
@@ -18284,7 +18278,7 @@
         <v>2017</v>
       </c>
       <c r="C61" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D61" t="s">
         <v>577</v>
@@ -18296,7 +18290,7 @@
         <v>386</v>
       </c>
       <c r="G61" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H61">
         <v>885174</v>
@@ -18340,7 +18334,7 @@
         <v>2017</v>
       </c>
       <c r="C62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D62" t="s">
         <v>460</v>
@@ -18352,7 +18346,7 @@
         <v>386</v>
       </c>
       <c r="G62" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H62">
         <v>884065</v>
@@ -18396,7 +18390,7 @@
         <v>2017</v>
       </c>
       <c r="C63" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D63" t="s">
         <v>558</v>
@@ -18408,7 +18402,7 @@
         <v>385</v>
       </c>
       <c r="G63" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H63">
         <v>882770</v>
@@ -18452,7 +18446,7 @@
         <v>2017</v>
       </c>
       <c r="C64" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D64" t="s">
         <v>578</v>
@@ -18464,7 +18458,7 @@
         <v>385</v>
       </c>
       <c r="G64" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H64">
         <v>883320</v>
@@ -18508,7 +18502,7 @@
         <v>2017</v>
       </c>
       <c r="C65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D65" t="s">
         <v>512</v>
@@ -18520,7 +18514,7 @@
         <v>386</v>
       </c>
       <c r="G65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H65">
         <v>880489</v>
@@ -18564,7 +18558,7 @@
         <v>2017</v>
       </c>
       <c r="C66" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D66" t="s">
         <v>531</v>
@@ -18576,7 +18570,7 @@
         <v>388</v>
       </c>
       <c r="G66" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H66">
         <v>884288</v>
@@ -18620,7 +18614,7 @@
         <v>2017</v>
       </c>
       <c r="C67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D67" t="s">
         <v>579</v>
@@ -18632,7 +18626,7 @@
         <v>386</v>
       </c>
       <c r="G67" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H67">
         <v>886543</v>
@@ -18676,7 +18670,7 @@
         <v>2017</v>
       </c>
       <c r="C68" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D68" t="s">
         <v>434</v>
@@ -18688,7 +18682,7 @@
         <v>388</v>
       </c>
       <c r="G68" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H68">
         <v>883961</v>
@@ -18732,7 +18726,7 @@
         <v>2017</v>
       </c>
       <c r="C69" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D69" t="s">
         <v>532</v>
@@ -18744,7 +18738,7 @@
         <v>388</v>
       </c>
       <c r="G69" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H69">
         <v>884780</v>
@@ -18788,7 +18782,7 @@
         <v>2017</v>
       </c>
       <c r="C70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D70" t="s">
         <v>559</v>
@@ -18800,7 +18794,7 @@
         <v>385</v>
       </c>
       <c r="G70" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H70">
         <v>888019</v>
@@ -18844,7 +18838,7 @@
         <v>2017</v>
       </c>
       <c r="C71" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D71" t="s">
         <v>533</v>
@@ -18856,7 +18850,7 @@
         <v>385</v>
       </c>
       <c r="G71" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H71">
         <v>886487</v>
@@ -18900,7 +18894,7 @@
         <v>2017</v>
       </c>
       <c r="C72" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D72" t="s">
         <v>481</v>
@@ -18912,7 +18906,7 @@
         <v>388</v>
       </c>
       <c r="G72" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H72">
         <v>889877</v>
@@ -18956,7 +18950,7 @@
         <v>2017</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D73" t="s">
         <v>417</v>
@@ -18968,7 +18962,7 @@
         <v>388</v>
       </c>
       <c r="G73" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H73">
         <v>887607</v>
@@ -19012,7 +19006,7 @@
         <v>2017</v>
       </c>
       <c r="C74" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
@@ -19024,7 +19018,7 @@
         <v>385</v>
       </c>
       <c r="G74" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H74">
         <v>885383</v>
@@ -19068,7 +19062,7 @@
         <v>2017</v>
       </c>
       <c r="C75" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D75" t="s">
         <v>482</v>
@@ -19080,7 +19074,7 @@
         <v>385</v>
       </c>
       <c r="G75" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H75">
         <v>886992</v>
@@ -19124,7 +19118,7 @@
         <v>2017</v>
       </c>
       <c r="C76" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D76" t="s">
         <v>461</v>
@@ -19136,7 +19130,7 @@
         <v>388</v>
       </c>
       <c r="G76" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H76">
         <v>885192</v>
@@ -19180,7 +19174,7 @@
         <v>2017</v>
       </c>
       <c r="C77" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D77" t="s">
         <v>130</v>
@@ -19192,7 +19186,7 @@
         <v>388</v>
       </c>
       <c r="G77" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H77">
         <v>881606</v>
@@ -19236,7 +19230,7 @@
         <v>2017</v>
       </c>
       <c r="C78" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D78" t="s">
         <v>534</v>
@@ -19248,7 +19242,7 @@
         <v>386</v>
       </c>
       <c r="G78" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H78">
         <v>883111</v>
@@ -19292,7 +19286,7 @@
         <v>2017</v>
       </c>
       <c r="C79" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D79" t="s">
         <v>462</v>
@@ -19304,7 +19298,7 @@
         <v>388</v>
       </c>
       <c r="G79" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H79">
         <v>883692</v>
@@ -19348,7 +19342,7 @@
         <v>2017</v>
       </c>
       <c r="C80" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D80" t="s">
         <v>513</v>
@@ -19360,7 +19354,7 @@
         <v>391</v>
       </c>
       <c r="G80" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H80">
         <v>883745</v>
@@ -19404,7 +19398,7 @@
         <v>2017</v>
       </c>
       <c r="C81" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D81" t="s">
         <v>560</v>
@@ -19416,7 +19410,7 @@
         <v>388</v>
       </c>
       <c r="G81" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H81">
         <v>885838</v>
@@ -19460,7 +19454,7 @@
         <v>2017</v>
       </c>
       <c r="C82" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D82" t="s">
         <v>463</v>
@@ -19472,7 +19466,7 @@
         <v>388</v>
       </c>
       <c r="G82" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H82">
         <v>884476</v>
@@ -19516,7 +19510,7 @@
         <v>2017</v>
       </c>
       <c r="C83" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D83" t="s">
         <v>464</v>
@@ -19528,7 +19522,7 @@
         <v>387</v>
       </c>
       <c r="G83" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H83">
         <v>880814</v>
@@ -19572,7 +19566,7 @@
         <v>2017</v>
       </c>
       <c r="C84" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D84" t="s">
         <v>514</v>
@@ -19584,7 +19578,7 @@
         <v>388</v>
       </c>
       <c r="G84" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H84">
         <v>881648</v>
@@ -19628,7 +19622,7 @@
         <v>2017</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D85" t="s">
         <v>435</v>
@@ -19640,7 +19634,7 @@
         <v>385</v>
       </c>
       <c r="G85" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H85">
         <v>885192</v>
@@ -19684,7 +19678,7 @@
         <v>2017</v>
       </c>
       <c r="C86" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D86" t="s">
         <v>580</v>
@@ -19696,7 +19690,7 @@
         <v>388</v>
       </c>
       <c r="G86" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H86">
         <v>886716</v>
@@ -19740,7 +19734,7 @@
         <v>2017</v>
       </c>
       <c r="C87" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D87" t="s">
         <v>581</v>
@@ -19752,7 +19746,7 @@
         <v>389</v>
       </c>
       <c r="G87" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H87">
         <v>884047</v>
@@ -19796,7 +19790,7 @@
         <v>2017</v>
       </c>
       <c r="C88" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D88" t="s">
         <v>483</v>
@@ -19808,7 +19802,7 @@
         <v>385</v>
       </c>
       <c r="G88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H88">
         <v>882257</v>
@@ -19852,7 +19846,7 @@
         <v>2017</v>
       </c>
       <c r="C89" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D89" t="s">
         <v>561</v>
@@ -19864,7 +19858,7 @@
         <v>387</v>
       </c>
       <c r="G89" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H89">
         <v>886430</v>
@@ -19908,7 +19902,7 @@
         <v>2017</v>
       </c>
       <c r="C90" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D90" t="s">
         <v>515</v>
@@ -19920,7 +19914,7 @@
         <v>391</v>
       </c>
       <c r="G90" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H90">
         <v>883716</v>
@@ -19964,7 +19958,7 @@
         <v>2017</v>
       </c>
       <c r="C91" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D91" t="s">
         <v>535</v>
@@ -19976,7 +19970,7 @@
         <v>388</v>
       </c>
       <c r="G91" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H91">
         <v>880247</v>
@@ -20020,7 +20014,7 @@
         <v>2017</v>
       </c>
       <c r="C92" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D92" t="s">
         <v>582</v>
@@ -20032,7 +20026,7 @@
         <v>386</v>
       </c>
       <c r="G92" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H92">
         <v>880828</v>
@@ -20076,7 +20070,7 @@
         <v>2017</v>
       </c>
       <c r="C93" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D93" t="s">
         <v>484</v>
@@ -20088,7 +20082,7 @@
         <v>389</v>
       </c>
       <c r="G93" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H93">
         <v>883496</v>
@@ -20132,7 +20126,7 @@
         <v>2017</v>
       </c>
       <c r="C94" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D94" t="s">
         <v>465</v>
@@ -20144,7 +20138,7 @@
         <v>387</v>
       </c>
       <c r="G94" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H94">
         <v>883495</v>
@@ -20188,7 +20182,7 @@
         <v>2017</v>
       </c>
       <c r="C95" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D95" t="s">
         <v>583</v>
@@ -20200,7 +20194,7 @@
         <v>385</v>
       </c>
       <c r="G95" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H95">
         <v>881638</v>
@@ -20244,7 +20238,7 @@
         <v>2017</v>
       </c>
       <c r="C96" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D96" t="s">
         <v>536</v>
@@ -20256,7 +20250,7 @@
         <v>385</v>
       </c>
       <c r="G96" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H96">
         <v>882025</v>
@@ -20300,7 +20294,7 @@
         <v>2017</v>
       </c>
       <c r="C97" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D97" t="s">
         <v>496</v>
@@ -20312,7 +20306,7 @@
         <v>387</v>
       </c>
       <c r="G97" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H97">
         <v>882574</v>
@@ -20356,7 +20350,7 @@
         <v>2017</v>
       </c>
       <c r="C98" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D98" t="s">
         <v>466</v>
@@ -20368,7 +20362,7 @@
         <v>385</v>
       </c>
       <c r="G98" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H98">
         <v>883843</v>
@@ -20412,7 +20406,7 @@
         <v>2017</v>
       </c>
       <c r="C99" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D99" t="s">
         <v>436</v>
@@ -20424,7 +20418,7 @@
         <v>388</v>
       </c>
       <c r="G99" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H99">
         <v>886910</v>
@@ -20468,7 +20462,7 @@
         <v>2017</v>
       </c>
       <c r="C100" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D100" t="s">
         <v>516</v>
@@ -20480,7 +20474,7 @@
         <v>385</v>
       </c>
       <c r="G100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H100">
         <v>883479</v>
@@ -20524,7 +20518,7 @@
         <v>2017</v>
       </c>
       <c r="C101" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D101" t="s">
         <v>484</v>
@@ -20536,7 +20530,7 @@
         <v>391</v>
       </c>
       <c r="G101" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H101">
         <v>886251</v>
@@ -20580,7 +20574,7 @@
         <v>2017</v>
       </c>
       <c r="C102" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D102" t="s">
         <v>517</v>
@@ -20592,7 +20586,7 @@
         <v>386</v>
       </c>
       <c r="G102" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H102">
         <v>884046</v>
@@ -20636,7 +20630,7 @@
         <v>2017</v>
       </c>
       <c r="C103" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D103" t="s">
         <v>562</v>
@@ -20648,7 +20642,7 @@
         <v>386</v>
       </c>
       <c r="G103" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H103">
         <v>881336</v>
@@ -20692,7 +20686,7 @@
         <v>2017</v>
       </c>
       <c r="C104" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D104" t="s">
         <v>418</v>
@@ -20704,7 +20698,7 @@
         <v>388</v>
       </c>
       <c r="G104" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H104">
         <v>887280</v>
@@ -20748,7 +20742,7 @@
         <v>2017</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D105" t="s">
         <v>485</v>
@@ -20760,7 +20754,7 @@
         <v>388</v>
       </c>
       <c r="G105" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H105">
         <v>886525</v>
@@ -20804,7 +20798,7 @@
         <v>2017</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D106" t="s">
         <v>563</v>
@@ -20816,7 +20810,7 @@
         <v>386</v>
       </c>
       <c r="G106" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H106">
         <v>880640</v>
@@ -20860,7 +20854,7 @@
         <v>2017</v>
       </c>
       <c r="C107" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D107" t="s">
         <v>584</v>
@@ -20872,7 +20866,7 @@
         <v>385</v>
       </c>
       <c r="G107" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H107">
         <v>880790</v>
@@ -20916,7 +20910,7 @@
         <v>2017</v>
       </c>
       <c r="C108" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D108" t="s">
         <v>437</v>
@@ -20928,7 +20922,7 @@
         <v>386</v>
       </c>
       <c r="G108" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H108">
         <v>885812</v>
@@ -20972,7 +20966,7 @@
         <v>2017</v>
       </c>
       <c r="C109" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D109" t="s">
         <v>585</v>
@@ -20984,7 +20978,7 @@
         <v>389</v>
       </c>
       <c r="G109" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H109">
         <v>886684</v>
@@ -21028,7 +21022,7 @@
         <v>2017</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D110" t="s">
         <v>564</v>
@@ -21040,7 +21034,7 @@
         <v>388</v>
       </c>
       <c r="G110" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H110">
         <v>889485</v>
@@ -21084,7 +21078,7 @@
         <v>2017</v>
       </c>
       <c r="C111" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D111" t="s">
         <v>518</v>
@@ -21096,7 +21090,7 @@
         <v>386</v>
       </c>
       <c r="G111" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H111">
         <v>887467</v>
@@ -21140,7 +21134,7 @@
         <v>2017</v>
       </c>
       <c r="C112" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D112" t="s">
         <v>537</v>
@@ -21152,7 +21146,7 @@
         <v>387</v>
       </c>
       <c r="G112" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H112">
         <v>887106</v>
@@ -21196,7 +21190,7 @@
         <v>2017</v>
       </c>
       <c r="C113" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D113" t="s">
         <v>519</v>
@@ -21208,7 +21202,7 @@
         <v>390</v>
       </c>
       <c r="G113" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H113">
         <v>885530</v>
@@ -21252,7 +21246,7 @@
         <v>2017</v>
       </c>
       <c r="C114" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D114" t="s">
         <v>467</v>
@@ -21264,7 +21258,7 @@
         <v>386</v>
       </c>
       <c r="G114" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H114">
         <v>884108</v>
@@ -21308,7 +21302,7 @@
         <v>2017</v>
       </c>
       <c r="C115" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D115" t="s">
         <v>438</v>
@@ -21320,7 +21314,7 @@
         <v>385</v>
       </c>
       <c r="G115" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H115">
         <v>886958</v>
@@ -21364,7 +21358,7 @@
         <v>2017</v>
       </c>
       <c r="C116" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D116" t="s">
         <v>520</v>
@@ -21376,7 +21370,7 @@
         <v>388</v>
       </c>
       <c r="G116" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H116">
         <v>886204</v>
@@ -21420,7 +21414,7 @@
         <v>2017</v>
       </c>
       <c r="C117" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D117" t="s">
         <v>468</v>
@@ -21432,7 +21426,7 @@
         <v>391</v>
       </c>
       <c r="G117" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H117">
         <v>880016</v>
@@ -21476,7 +21470,7 @@
         <v>2017</v>
       </c>
       <c r="C118" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D118" t="s">
         <v>538</v>
@@ -21488,7 +21482,7 @@
         <v>388</v>
       </c>
       <c r="G118" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H118">
         <v>889572</v>
@@ -21532,7 +21526,7 @@
         <v>2017</v>
       </c>
       <c r="C119" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D119" t="s">
         <v>486</v>
@@ -21544,7 +21538,7 @@
         <v>389</v>
       </c>
       <c r="G119" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H119">
         <v>881427</v>
@@ -21588,7 +21582,7 @@
         <v>2017</v>
       </c>
       <c r="C120" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D120" t="s">
         <v>439</v>
@@ -21600,7 +21594,7 @@
         <v>385</v>
       </c>
       <c r="G120" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H120">
         <v>884175</v>
@@ -21644,7 +21638,7 @@
         <v>2017</v>
       </c>
       <c r="C121" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
         <v>586</v>
@@ -21656,7 +21650,7 @@
         <v>385</v>
       </c>
       <c r="G121" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H121">
         <v>882952</v>
@@ -21700,7 +21694,7 @@
         <v>2017</v>
       </c>
       <c r="C122" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D122" t="s">
         <v>539</v>
@@ -21712,7 +21706,7 @@
         <v>385</v>
       </c>
       <c r="G122" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H122">
         <v>884867</v>
@@ -21756,7 +21750,7 @@
         <v>2017</v>
       </c>
       <c r="C123" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D123" t="s">
         <v>540</v>
@@ -21768,7 +21762,7 @@
         <v>385</v>
       </c>
       <c r="G123" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H123">
         <v>886345</v>
@@ -21812,7 +21806,7 @@
         <v>2017</v>
       </c>
       <c r="C124" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D124" t="s">
         <v>521</v>
@@ -21824,7 +21818,7 @@
         <v>386</v>
       </c>
       <c r="G124" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H124">
         <v>880361</v>
@@ -21868,7 +21862,7 @@
         <v>2017</v>
       </c>
       <c r="C125" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D125" t="s">
         <v>419</v>
@@ -21880,7 +21874,7 @@
         <v>386</v>
       </c>
       <c r="G125" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H125">
         <v>885709</v>
@@ -21924,7 +21918,7 @@
         <v>2017</v>
       </c>
       <c r="C126" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D126" t="s">
         <v>469</v>
@@ -21936,7 +21930,7 @@
         <v>385</v>
       </c>
       <c r="G126" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H126">
         <v>885301</v>
@@ -21980,7 +21974,7 @@
         <v>2017</v>
       </c>
       <c r="C127" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D127" t="s">
         <v>440</v>
@@ -21992,7 +21986,7 @@
         <v>389</v>
       </c>
       <c r="G127" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H127">
         <v>886054</v>
@@ -22036,7 +22030,7 @@
         <v>2017</v>
       </c>
       <c r="C128" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D128" t="s">
         <v>487</v>
@@ -22048,7 +22042,7 @@
         <v>385</v>
       </c>
       <c r="G128" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H128">
         <v>881514</v>
@@ -22092,7 +22086,7 @@
         <v>2017</v>
       </c>
       <c r="C129" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D129" t="s">
         <v>420</v>
@@ -22104,7 +22098,7 @@
         <v>385</v>
       </c>
       <c r="G129" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H129">
         <v>885824</v>
@@ -22148,7 +22142,7 @@
         <v>2017</v>
       </c>
       <c r="C130" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D130" t="s">
         <v>565</v>
@@ -22160,7 +22154,7 @@
         <v>385</v>
       </c>
       <c r="G130" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H130">
         <v>883022</v>
@@ -22204,7 +22198,7 @@
         <v>2017</v>
       </c>
       <c r="C131" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D131" t="s">
         <v>470</v>
@@ -22216,7 +22210,7 @@
         <v>385</v>
       </c>
       <c r="G131" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H131">
         <v>884552</v>
@@ -22260,7 +22254,7 @@
         <v>2017</v>
       </c>
       <c r="C132" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D132" t="s">
         <v>587</v>
@@ -22272,7 +22266,7 @@
         <v>385</v>
       </c>
       <c r="G132" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H132">
         <v>882030</v>
@@ -22316,7 +22310,7 @@
         <v>2017</v>
       </c>
       <c r="C133" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D133" t="s">
         <v>588</v>
@@ -22328,7 +22322,7 @@
         <v>385</v>
       </c>
       <c r="G133" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H133">
         <v>889615</v>
@@ -22372,7 +22366,7 @@
         <v>2017</v>
       </c>
       <c r="C134" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D134" t="s">
         <v>421</v>
@@ -22384,7 +22378,7 @@
         <v>385</v>
       </c>
       <c r="G134" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H134">
         <v>887780</v>
@@ -22428,7 +22422,7 @@
         <v>2017</v>
       </c>
       <c r="C135" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D135" t="s">
         <v>95</v>
@@ -22440,7 +22434,7 @@
         <v>391</v>
       </c>
       <c r="G135" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H135">
         <v>884388</v>
@@ -22484,7 +22478,7 @@
         <v>2017</v>
       </c>
       <c r="C136" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D136" t="s">
         <v>441</v>
@@ -22496,7 +22490,7 @@
         <v>386</v>
       </c>
       <c r="G136" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H136">
         <v>881144</v>
@@ -22540,7 +22534,7 @@
         <v>2017</v>
       </c>
       <c r="C137" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D137" t="s">
         <v>471</v>
@@ -22552,7 +22546,7 @@
         <v>389</v>
       </c>
       <c r="G137" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H137">
         <v>883103</v>
@@ -22596,7 +22590,7 @@
         <v>2017</v>
       </c>
       <c r="C138" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D138" t="s">
         <v>589</v>
@@ -22608,7 +22602,7 @@
         <v>386</v>
       </c>
       <c r="G138" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H138">
         <v>889631</v>
@@ -22652,7 +22646,7 @@
         <v>2017</v>
       </c>
       <c r="C139" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D139" t="s">
         <v>488</v>
@@ -22664,7 +22658,7 @@
         <v>385</v>
       </c>
       <c r="G139" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H139">
         <v>880979</v>
@@ -22708,7 +22702,7 @@
         <v>2017</v>
       </c>
       <c r="C140" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D140" t="s">
         <v>522</v>
@@ -22720,7 +22714,7 @@
         <v>387</v>
       </c>
       <c r="G140" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H140">
         <v>880457</v>
@@ -22764,7 +22758,7 @@
         <v>2017</v>
       </c>
       <c r="C141" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D141" t="s">
         <v>442</v>
@@ -22776,7 +22770,7 @@
         <v>388</v>
       </c>
       <c r="G141" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H141">
         <v>889443</v>
@@ -22820,7 +22814,7 @@
         <v>2017</v>
       </c>
       <c r="C142" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D142" t="s">
         <v>422</v>
@@ -22832,7 +22826,7 @@
         <v>386</v>
       </c>
       <c r="G142" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H142">
         <v>886139</v>
@@ -22876,7 +22870,7 @@
         <v>2017</v>
       </c>
       <c r="C143" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D143" t="s">
         <v>541</v>
@@ -22888,7 +22882,7 @@
         <v>385</v>
       </c>
       <c r="G143" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H143">
         <v>882839</v>
@@ -22932,7 +22926,7 @@
         <v>2017</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D144" t="s">
         <v>489</v>
@@ -22944,7 +22938,7 @@
         <v>385</v>
       </c>
       <c r="G144" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H144">
         <v>884179</v>
@@ -22988,7 +22982,7 @@
         <v>2017</v>
       </c>
       <c r="C145" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D145" t="s">
         <v>523</v>
@@ -23000,7 +22994,7 @@
         <v>385</v>
       </c>
       <c r="G145" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H145">
         <v>880828</v>
@@ -23044,7 +23038,7 @@
         <v>2017</v>
       </c>
       <c r="C146" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D146" t="s">
         <v>490</v>
@@ -23056,7 +23050,7 @@
         <v>385</v>
       </c>
       <c r="G146" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H146">
         <v>888632</v>
@@ -23100,7 +23094,7 @@
         <v>2017</v>
       </c>
       <c r="C147" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D147" t="s">
         <v>542</v>
@@ -23112,7 +23106,7 @@
         <v>386</v>
       </c>
       <c r="G147" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H147">
         <v>884951</v>
@@ -23156,7 +23150,7 @@
         <v>2017</v>
       </c>
       <c r="C148" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D148" t="s">
         <v>443</v>
@@ -23168,7 +23162,7 @@
         <v>385</v>
       </c>
       <c r="G148" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H148">
         <v>888418</v>
@@ -23212,7 +23206,7 @@
         <v>2017</v>
       </c>
       <c r="C149" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D149" t="s">
         <v>444</v>
@@ -23224,7 +23218,7 @@
         <v>385</v>
       </c>
       <c r="G149" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H149">
         <v>886908</v>
@@ -23268,7 +23262,7 @@
         <v>2017</v>
       </c>
       <c r="C150" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D150" t="s">
         <v>590</v>
@@ -23280,7 +23274,7 @@
         <v>386</v>
       </c>
       <c r="G150" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H150">
         <v>880206</v>
@@ -23324,7 +23318,7 @@
         <v>2017</v>
       </c>
       <c r="C151" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D151" t="s">
         <v>445</v>
@@ -23336,7 +23330,7 @@
         <v>386</v>
       </c>
       <c r="G151" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H151">
         <v>884933</v>
@@ -23380,7 +23374,7 @@
         <v>2017</v>
       </c>
       <c r="C152" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D152" t="s">
         <v>446</v>
@@ -23392,7 +23386,7 @@
         <v>387</v>
       </c>
       <c r="G152" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H152">
         <v>886797</v>
@@ -23436,7 +23430,7 @@
         <v>2017</v>
       </c>
       <c r="C153" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D153" t="s">
         <v>423</v>
@@ -23448,7 +23442,7 @@
         <v>386</v>
       </c>
       <c r="G153" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H153">
         <v>882343</v>
@@ -23492,7 +23486,7 @@
         <v>2017</v>
       </c>
       <c r="C154" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D154" t="s">
         <v>591</v>
@@ -23504,7 +23498,7 @@
         <v>385</v>
       </c>
       <c r="G154" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H154">
         <v>888576</v>
@@ -23548,7 +23542,7 @@
         <v>2017</v>
       </c>
       <c r="C155" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D155" t="s">
         <v>592</v>
@@ -23560,7 +23554,7 @@
         <v>386</v>
       </c>
       <c r="G155" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H155">
         <v>889327</v>
@@ -23604,7 +23598,7 @@
         <v>2017</v>
       </c>
       <c r="C156" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D156" t="s">
         <v>472</v>
@@ -23616,7 +23610,7 @@
         <v>386</v>
       </c>
       <c r="G156" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H156">
         <v>889536</v>
@@ -23660,7 +23654,7 @@
         <v>2017</v>
       </c>
       <c r="C157" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D157" t="s">
         <v>424</v>
@@ -23672,7 +23666,7 @@
         <v>388</v>
       </c>
       <c r="G157" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H157">
         <v>881450</v>
@@ -23716,7 +23710,7 @@
         <v>2017</v>
       </c>
       <c r="C158" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D158" t="s">
         <v>593</v>
@@ -23728,7 +23722,7 @@
         <v>386</v>
       </c>
       <c r="G158" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H158">
         <v>881122</v>
@@ -23772,7 +23766,7 @@
         <v>2017</v>
       </c>
       <c r="C159" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D159" t="s">
         <v>447</v>
@@ -23784,7 +23778,7 @@
         <v>387</v>
       </c>
       <c r="G159" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H159">
         <v>887816</v>
@@ -23828,7 +23822,7 @@
         <v>2017</v>
       </c>
       <c r="C160" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D160" t="s">
         <v>543</v>
@@ -23840,7 +23834,7 @@
         <v>387</v>
       </c>
       <c r="G160" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H160">
         <v>884314</v>
@@ -23884,7 +23878,7 @@
         <v>2017</v>
       </c>
       <c r="C161" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D161" t="s">
         <v>425</v>
@@ -23896,7 +23890,7 @@
         <v>386</v>
       </c>
       <c r="G161" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H161">
         <v>882006</v>
@@ -23940,7 +23934,7 @@
         <v>2017</v>
       </c>
       <c r="C162" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D162" t="s">
         <v>566</v>
@@ -23952,7 +23946,7 @@
         <v>386</v>
       </c>
       <c r="G162" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H162">
         <v>881859</v>
@@ -23996,7 +23990,7 @@
         <v>2017</v>
       </c>
       <c r="C163" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D163" t="s">
         <v>448</v>
@@ -24008,7 +24002,7 @@
         <v>388</v>
       </c>
       <c r="G163" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H163">
         <v>882211</v>
@@ -24052,7 +24046,7 @@
         <v>2017</v>
       </c>
       <c r="C164" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D164" t="s">
         <v>426</v>
@@ -24064,7 +24058,7 @@
         <v>385</v>
       </c>
       <c r="G164" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H164">
         <v>885945</v>
@@ -24108,7 +24102,7 @@
         <v>2017</v>
       </c>
       <c r="C165" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D165" t="s">
         <v>567</v>
@@ -24120,7 +24114,7 @@
         <v>385</v>
       </c>
       <c r="G165" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H165">
         <v>886633</v>
@@ -24164,7 +24158,7 @@
         <v>2017</v>
       </c>
       <c r="C166" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D166" t="s">
         <v>544</v>
@@ -24176,7 +24170,7 @@
         <v>385</v>
       </c>
       <c r="G166" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H166">
         <v>888158</v>
@@ -24220,7 +24214,7 @@
         <v>2017</v>
       </c>
       <c r="C167" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D167" t="s">
         <v>473</v>
@@ -24232,7 +24226,7 @@
         <v>391</v>
       </c>
       <c r="G167" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H167">
         <v>883480</v>
@@ -24276,7 +24270,7 @@
         <v>2017</v>
       </c>
       <c r="C168" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D168" t="s">
         <v>427</v>
@@ -24288,7 +24282,7 @@
         <v>389</v>
       </c>
       <c r="G168" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H168">
         <v>884050</v>
@@ -24332,7 +24326,7 @@
         <v>2017</v>
       </c>
       <c r="C169" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D169" t="s">
         <v>491</v>
@@ -24344,7 +24338,7 @@
         <v>387</v>
       </c>
       <c r="G169" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H169">
         <v>880258</v>
@@ -24388,7 +24382,7 @@
         <v>2017</v>
       </c>
       <c r="C170" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D170" t="s">
         <v>492</v>
@@ -24400,7 +24394,7 @@
         <v>388</v>
       </c>
       <c r="G170" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H170">
         <v>887087</v>
@@ -24444,7 +24438,7 @@
         <v>2017</v>
       </c>
       <c r="C171" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D171" t="s">
         <v>568</v>
@@ -24456,7 +24450,7 @@
         <v>388</v>
       </c>
       <c r="G171" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H171">
         <v>888398</v>
@@ -24500,7 +24494,7 @@
         <v>2017</v>
       </c>
       <c r="C172" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D172" t="s">
         <v>594</v>
@@ -24512,7 +24506,7 @@
         <v>385</v>
       </c>
       <c r="G172" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H172">
         <v>884139</v>
@@ -24556,7 +24550,7 @@
         <v>2017</v>
       </c>
       <c r="C173" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D173" t="s">
         <v>545</v>
@@ -24568,7 +24562,7 @@
         <v>385</v>
       </c>
       <c r="G173" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H173">
         <v>880208</v>
@@ -24612,7 +24606,7 @@
         <v>2017</v>
       </c>
       <c r="C174" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D174" t="s">
         <v>449</v>
@@ -24624,7 +24618,7 @@
         <v>387</v>
       </c>
       <c r="G174" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H174">
         <v>888581</v>
@@ -24668,7 +24662,7 @@
         <v>2017</v>
       </c>
       <c r="C175" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D175" t="s">
         <v>595</v>
@@ -24680,7 +24674,7 @@
         <v>386</v>
       </c>
       <c r="G175" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H175">
         <v>880754</v>
@@ -24724,7 +24718,7 @@
         <v>2017</v>
       </c>
       <c r="C176" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D176" t="s">
         <v>493</v>
@@ -24736,7 +24730,7 @@
         <v>388</v>
       </c>
       <c r="G176" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H176">
         <v>884406</v>
@@ -24780,7 +24774,7 @@
         <v>2017</v>
       </c>
       <c r="C177" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D177" t="s">
         <v>524</v>
@@ -24792,7 +24786,7 @@
         <v>385</v>
       </c>
       <c r="G177" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H177">
         <v>889013</v>
@@ -24836,7 +24830,7 @@
         <v>2017</v>
       </c>
       <c r="C178" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D178" t="s">
         <v>494</v>
@@ -24848,7 +24842,7 @@
         <v>388</v>
       </c>
       <c r="G178" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H178">
         <v>884654</v>
@@ -24892,7 +24886,7 @@
         <v>2017</v>
       </c>
       <c r="C179" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D179" t="s">
         <v>474</v>
@@ -24904,7 +24898,7 @@
         <v>386</v>
       </c>
       <c r="G179" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H179">
         <v>884098</v>
@@ -24948,7 +24942,7 @@
         <v>2017</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D180" t="s">
         <v>495</v>
@@ -24960,7 +24954,7 @@
         <v>389</v>
       </c>
       <c r="G180" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H180">
         <v>883385</v>
@@ -25004,7 +24998,7 @@
         <v>2017</v>
       </c>
       <c r="C181" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D181" t="s">
         <v>428</v>
@@ -25016,7 +25010,7 @@
         <v>386</v>
       </c>
       <c r="G181" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H181">
         <v>882264</v>
@@ -25060,7 +25054,7 @@
         <v>2017</v>
       </c>
       <c r="C182" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D182" t="s">
         <v>525</v>
@@ -25072,7 +25066,7 @@
         <v>387</v>
       </c>
       <c r="G182" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H182">
         <v>886295</v>
@@ -25116,7 +25110,7 @@
         <v>2017</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D183" t="s">
         <v>475</v>
@@ -25128,7 +25122,7 @@
         <v>386</v>
       </c>
       <c r="G183" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H183">
         <v>889272</v>
@@ -25172,7 +25166,7 @@
         <v>2017</v>
       </c>
       <c r="C184" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D184" t="s">
         <v>596</v>
@@ -25184,7 +25178,7 @@
         <v>389</v>
       </c>
       <c r="G184" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H184">
         <v>883572</v>
@@ -25228,7 +25222,7 @@
         <v>2017</v>
       </c>
       <c r="C185" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D185" t="s">
         <v>450</v>
@@ -25240,7 +25234,7 @@
         <v>385</v>
       </c>
       <c r="G185" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H185">
         <v>885209</v>
@@ -25284,7 +25278,7 @@
         <v>2017</v>
       </c>
       <c r="C186" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D186" t="s">
         <v>526</v>
@@ -25296,7 +25290,7 @@
         <v>388</v>
       </c>
       <c r="G186" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H186">
         <v>884888</v>
@@ -25340,7 +25334,7 @@
         <v>2017</v>
       </c>
       <c r="C187" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D187" t="s">
         <v>496</v>
@@ -25352,7 +25346,7 @@
         <v>386</v>
       </c>
       <c r="G187" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H187">
         <v>880902</v>
@@ -25396,7 +25390,7 @@
         <v>2017</v>
       </c>
       <c r="C188" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D188" t="s">
         <v>497</v>
@@ -25408,7 +25402,7 @@
         <v>385</v>
       </c>
       <c r="G188" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H188">
         <v>881675</v>
@@ -25452,7 +25446,7 @@
         <v>2017</v>
       </c>
       <c r="C189" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D189" t="s">
         <v>451</v>
@@ -25464,7 +25458,7 @@
         <v>387</v>
       </c>
       <c r="G189" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H189">
         <v>883615</v>
@@ -25508,7 +25502,7 @@
         <v>2017</v>
       </c>
       <c r="C190" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D190" t="s">
         <v>498</v>
@@ -25520,7 +25514,7 @@
         <v>387</v>
       </c>
       <c r="G190" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H190">
         <v>883201</v>
@@ -25564,7 +25558,7 @@
         <v>2017</v>
       </c>
       <c r="C191" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D191" t="s">
         <v>499</v>
@@ -25576,7 +25570,7 @@
         <v>388</v>
       </c>
       <c r="G191" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H191">
         <v>886992</v>
@@ -25620,7 +25614,7 @@
         <v>2017</v>
       </c>
       <c r="C192" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D192" t="s">
         <v>500</v>
@@ -25632,7 +25626,7 @@
         <v>391</v>
       </c>
       <c r="G192" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H192">
         <v>882793</v>
@@ -25676,7 +25670,7 @@
         <v>2017</v>
       </c>
       <c r="C193" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D193" t="s">
         <v>452</v>
@@ -25688,7 +25682,7 @@
         <v>386</v>
       </c>
       <c r="G193" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H193">
         <v>889494</v>
@@ -25732,7 +25726,7 @@
         <v>2017</v>
       </c>
       <c r="C194" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D194" t="s">
         <v>569</v>
@@ -25744,7 +25738,7 @@
         <v>385</v>
       </c>
       <c r="G194" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H194">
         <v>889453</v>
@@ -25788,7 +25782,7 @@
         <v>2017</v>
       </c>
       <c r="C195" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D195" t="s">
         <v>570</v>
@@ -25800,7 +25794,7 @@
         <v>385</v>
       </c>
       <c r="G195" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H195">
         <v>885007</v>
@@ -25844,7 +25838,7 @@
         <v>2017</v>
       </c>
       <c r="C196" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D196" t="s">
         <v>546</v>
@@ -25856,7 +25850,7 @@
         <v>388</v>
       </c>
       <c r="G196" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H196">
         <v>882604</v>
@@ -25900,7 +25894,7 @@
         <v>2017</v>
       </c>
       <c r="C197" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D197" t="s">
         <v>476</v>
@@ -25912,7 +25906,7 @@
         <v>387</v>
       </c>
       <c r="G197" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H197">
         <v>889373</v>
@@ -25956,7 +25950,7 @@
         <v>2017</v>
       </c>
       <c r="C198" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D198" t="s">
         <v>571</v>
@@ -25968,7 +25962,7 @@
         <v>389</v>
       </c>
       <c r="G198" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H198">
         <v>880255</v>
@@ -26012,7 +26006,7 @@
         <v>2017</v>
       </c>
       <c r="C199" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D199" t="s">
         <v>453</v>
@@ -26024,7 +26018,7 @@
         <v>387</v>
       </c>
       <c r="G199" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H199">
         <v>886533</v>
@@ -26068,7 +26062,7 @@
         <v>2017</v>
       </c>
       <c r="C200" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D200" t="s">
         <v>501</v>
@@ -26080,7 +26074,7 @@
         <v>387</v>
       </c>
       <c r="G200" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H200">
         <v>881801</v>
@@ -26124,7 +26118,7 @@
         <v>2017</v>
       </c>
       <c r="C201" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D201" t="s">
         <v>547</v>
@@ -26136,7 +26130,7 @@
         <v>388</v>
       </c>
       <c r="G201" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H201">
         <v>885107</v>
@@ -26180,7 +26174,7 @@
         <v>2017</v>
       </c>
       <c r="C202" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D202" t="s">
         <v>136</v>
@@ -26236,7 +26230,7 @@
         <v>2017</v>
       </c>
       <c r="C203" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D203" t="s">
         <v>52</v>
@@ -26292,7 +26286,7 @@
         <v>2017</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D204" t="s">
         <v>23</v>
@@ -26348,7 +26342,7 @@
         <v>2017</v>
       </c>
       <c r="C205" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D205" t="s">
         <v>60</v>
@@ -26404,7 +26398,7 @@
         <v>2017</v>
       </c>
       <c r="C206" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -26460,7 +26454,7 @@
         <v>2017</v>
       </c>
       <c r="C207" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D207" t="s">
         <v>20</v>
@@ -26516,7 +26510,7 @@
         <v>2017</v>
       </c>
       <c r="C208" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D208" t="s">
         <v>118</v>
@@ -26572,7 +26566,7 @@
         <v>2017</v>
       </c>
       <c r="C209" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E209" t="s">
         <v>397</v>
@@ -26625,7 +26619,7 @@
         <v>2017</v>
       </c>
       <c r="C210" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D210" t="s">
         <v>36</v>
@@ -26681,7 +26675,7 @@
         <v>2017</v>
       </c>
       <c r="C211" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D211" t="s">
         <v>193</v>
@@ -26737,7 +26731,7 @@
         <v>2017</v>
       </c>
       <c r="C212" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D212" t="s">
         <v>192</v>
@@ -26793,7 +26787,7 @@
         <v>2017</v>
       </c>
       <c r="C213" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D213" t="s">
         <v>134</v>
@@ -26849,7 +26843,7 @@
         <v>2017</v>
       </c>
       <c r="C214" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -26905,7 +26899,7 @@
         <v>2017</v>
       </c>
       <c r="C215" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D215" t="s">
         <v>61</v>
@@ -26961,7 +26955,7 @@
         <v>2017</v>
       </c>
       <c r="C216" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D216" t="s">
         <v>79</v>
@@ -27017,7 +27011,7 @@
         <v>2017</v>
       </c>
       <c r="C217" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D217" t="s">
         <v>117</v>
@@ -27073,7 +27067,7 @@
         <v>2017</v>
       </c>
       <c r="C218" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D218" t="s">
         <v>186</v>
@@ -27129,7 +27123,7 @@
         <v>2017</v>
       </c>
       <c r="C219" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E219" t="s">
         <v>396</v>
@@ -27179,9 +27173,9 @@
     <sortCondition ref="I2:I201"/>
   </sortState>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
+  <conditionalFormatting sqref="A9:A13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
